--- a/biology/Botanique/Malinae/Malinae.xlsx
+++ b/biology/Botanique/Malinae/Malinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Malinae, syn. Pyrinae, sont une sous-tribu de plantes à fleurs de la famille des Rosaceae, de la sous-famille des Amygdaloideae et de la tribu des Maleae.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom Malinae a été validement publié en 2012 par le botaniste américain James Lauritz Reveal[1]. Le genre type est Malus. Ce nom Malinae est légitimement publié et a priorité sur les noms antérieurs de la sous-tribu car il inclut le type d'un nom de famille conservé, Malaceae Small (Article 19.5 du CINB)[2].
-Malinae Reveal, 2012 a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom Malinae a été validement publié en 2012 par le botaniste américain James Lauritz Reveal. Le genre type est Malus. Ce nom Malinae est légitimement publié et a priorité sur les noms antérieurs de la sous-tribu car il inclut le type d'un nom de famille conservé, Malaceae Small (Article 19.5 du CINB).
+Malinae Reveal, 2012 a pour synonymes :
 Maloideae C.Weber, 1964
 Pyrinae Dumort., 1827</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (7 avril 2024)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (7 avril 2024) :
 Amelanchier Medik.
 ×Amelasorbus Rehder
 Aria (Pers.) Host
